--- a/慣用語.xlsx
+++ b/慣用語.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7845"/>
+    <workbookView xWindow="600" yWindow="105" windowWidth="19395" windowHeight="7845" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="与身体相关" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="日常生活" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="1181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="1490">
   <si>
     <t>番号</t>
     <rPh sb="0" eb="2">
@@ -7732,6 +7732,2300 @@
   </si>
   <si>
     <t>瞪眼珠子；大怒</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+  </si>
+  <si>
+    <t>青息吐息</t>
+  </si>
+  <si>
+    <t>青田買い</t>
+  </si>
+  <si>
+    <t>青菜に塩</t>
+  </si>
+  <si>
+    <t>赤字</t>
+  </si>
+  <si>
+    <t>胡坐をかく</t>
+  </si>
+  <si>
+    <t>足元から雉が立つ</t>
+  </si>
+  <si>
+    <t>後の祭り</t>
+  </si>
+  <si>
+    <t>後は野となれ山となれ</t>
+  </si>
+  <si>
+    <t>油を売る</t>
+  </si>
+  <si>
+    <t>油を搾る</t>
+  </si>
+  <si>
+    <t>泡を食う</t>
+  </si>
+  <si>
+    <t>石橋を叩いて渡る</t>
+  </si>
+  <si>
+    <t>一事が万事</t>
+  </si>
+  <si>
+    <t>一矢を報いる</t>
+  </si>
+  <si>
+    <t>一線を画す</t>
+  </si>
+  <si>
+    <t>言わぬが花</t>
+  </si>
+  <si>
+    <t>因果を含める</t>
+  </si>
+  <si>
+    <t>魚心あれば水心</t>
+  </si>
+  <si>
+    <t>嘘も方便</t>
+  </si>
+  <si>
+    <t>鵜の目鷹の目</t>
+  </si>
+  <si>
+    <t>馬の耳に念仏</t>
+  </si>
+  <si>
+    <t>瓜の蔓に茄子はならぬ</t>
+  </si>
+  <si>
+    <t>瓜二つ</t>
+  </si>
+  <si>
+    <t>上前を撥ねる</t>
+  </si>
+  <si>
+    <t>大風呂敷を広げる</t>
+  </si>
+  <si>
+    <t>奥歯に物が挟まる</t>
+  </si>
+  <si>
+    <t>お里が知れる</t>
+  </si>
+  <si>
+    <t>お茶を濁す</t>
+  </si>
+  <si>
+    <t>蛙の面に水</t>
+  </si>
+  <si>
+    <t>固唾を吞む</t>
+  </si>
+  <si>
+    <t>金に糸目を付けぬ</t>
+  </si>
+  <si>
+    <t>嚙んで含める</t>
+  </si>
+  <si>
+    <t>黄色い声</t>
+  </si>
+  <si>
+    <t>気が置ける</t>
+  </si>
+  <si>
+    <t>気で鼻を括る</t>
+  </si>
+  <si>
+    <t>気を吞まれる</t>
+  </si>
+  <si>
+    <t>ぐうの音も出ない</t>
+  </si>
+  <si>
+    <t>釘をさす</t>
+  </si>
+  <si>
+    <t>腐っても鯛</t>
+  </si>
+  <si>
+    <t>雲をつかむ</t>
+  </si>
+  <si>
+    <t>苦しい時の神頼み</t>
+  </si>
+  <si>
+    <t>黒字</t>
+  </si>
+  <si>
+    <t>黒幕</t>
+  </si>
+  <si>
+    <t>芸がない</t>
+  </si>
+  <si>
+    <t>下駄を預ける</t>
+  </si>
+  <si>
+    <t>弘法筆を選ばず</t>
+  </si>
+  <si>
+    <t>采配を振るう</t>
+  </si>
+  <si>
+    <t>匙を投げる</t>
+  </si>
+  <si>
+    <t>鯖を読む</t>
+  </si>
+  <si>
+    <t>鎬を削る</t>
+  </si>
+  <si>
+    <t>十人十色</t>
+  </si>
+  <si>
+    <t>食指が動く</t>
+  </si>
+  <si>
+    <t>図に当たる</t>
+  </si>
+  <si>
+    <t>図に乗る</t>
+  </si>
+  <si>
+    <t>図星を指す</t>
+  </si>
+  <si>
+    <t>隅に置けない</t>
+  </si>
+  <si>
+    <t>堰を切る</t>
+  </si>
+  <si>
+    <t>備えあれば憂いなし</t>
+  </si>
+  <si>
+    <t>反りが合わない</t>
+  </si>
+  <si>
+    <t>高が知れる</t>
+  </si>
+  <si>
+    <t>高嶺の花</t>
+  </si>
+  <si>
+    <t>高みの見物</t>
+  </si>
+  <si>
+    <t>高を括る</t>
+  </si>
+  <si>
+    <t>棚に上げる</t>
+  </si>
+  <si>
+    <t>鶴の一声</t>
+  </si>
+  <si>
+    <t>手の平を返す</t>
+  </si>
+  <si>
+    <t>灯台下暗し</t>
+  </si>
+  <si>
+    <t>飛ぶ鳥を落とす勢い</t>
+  </si>
+  <si>
+    <t>取り付く島もない</t>
+  </si>
+  <si>
+    <t>団栗の背比べ</t>
+  </si>
+  <si>
+    <t>長い物には巻かれろ</t>
+  </si>
+  <si>
+    <t>梨の礫</t>
+  </si>
+  <si>
+    <t>七転び八起き</t>
+  </si>
+  <si>
+    <t>二階から目薬</t>
+  </si>
+  <si>
+    <t>二枚舌を使う</t>
+  </si>
+  <si>
+    <t>濡れ衣を着せる</t>
+  </si>
+  <si>
+    <t>根も葉もない</t>
+  </si>
+  <si>
+    <t>拍車をかける</t>
+  </si>
+  <si>
+    <t>人の噂も七十五日</t>
+  </si>
+  <si>
+    <t>人を食う</t>
+  </si>
+  <si>
+    <t>火のない所に煙は立たぬ</t>
+  </si>
+  <si>
+    <t>瓢箪から駒</t>
+  </si>
+  <si>
+    <t>貧すれば鈍する</t>
+  </si>
+  <si>
+    <t>下手の考え休むに似たり</t>
+  </si>
+  <si>
+    <t>仏の顔も三度</t>
+  </si>
+  <si>
+    <t>蒔かぬ種は生えぬ</t>
+  </si>
+  <si>
+    <t>馬子にも衣裳</t>
+  </si>
+  <si>
+    <t>俎板の鯉</t>
+  </si>
+  <si>
+    <t>脈がある</t>
+  </si>
+  <si>
+    <t>虫が好かない</t>
+  </si>
+  <si>
+    <t>餅は餅屋</t>
+  </si>
+  <si>
+    <t>元の木阿弥</t>
+  </si>
+  <si>
+    <t>藪から棒</t>
+  </si>
+  <si>
+    <t>藪をつついて蛇を出す</t>
+  </si>
+  <si>
+    <t>槍玉に挙げる</t>
+  </si>
+  <si>
+    <t>横槍を入れる</t>
+  </si>
+  <si>
+    <t>立錐の地なし</t>
+  </si>
+  <si>
+    <t>両手に花</t>
+  </si>
+  <si>
+    <t>良薬は口に苦し</t>
+  </si>
+  <si>
+    <t>論より証拠</t>
+  </si>
+  <si>
+    <t>渡りに船</t>
+  </si>
+  <si>
+    <t>渡りをつける</t>
+  </si>
+  <si>
+    <t>割りを食う</t>
+  </si>
+  <si>
+    <t>あおいきといき</t>
+  </si>
+  <si>
+    <t>あおたがい</t>
+  </si>
+  <si>
+    <r>
+      <t>提前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用即将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>毕业</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的学生</t>
+    </r>
+  </si>
+  <si>
+    <t>あおなにしお</t>
+  </si>
+  <si>
+    <r>
+      <t>垂</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>头丧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气</t>
+    </r>
+  </si>
+  <si>
+    <t>あかじ</t>
+  </si>
+  <si>
+    <t>あぐらをかく</t>
+  </si>
+  <si>
+    <t>あしもとからきじがたつ</t>
+  </si>
+  <si>
+    <t>あとのまつり</t>
+  </si>
+  <si>
+    <r>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后炮</t>
+    </r>
+  </si>
+  <si>
+    <t>あとはのとなれやまとなれ</t>
+  </si>
+  <si>
+    <r>
+      <t>后只</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>图</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>眼前好</t>
+    </r>
+  </si>
+  <si>
+    <t>あぶらをうる</t>
+  </si>
+  <si>
+    <t>あぶらをしぼる</t>
+  </si>
+  <si>
+    <t>あわをくう</t>
+  </si>
+  <si>
+    <t>いしばしをたたいてわたる</t>
+  </si>
+  <si>
+    <t>いちじがばんじ</t>
+  </si>
+  <si>
+    <r>
+      <t>举</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>一反三</t>
+    </r>
+  </si>
+  <si>
+    <t>いっしをむくいる</t>
+  </si>
+  <si>
+    <r>
+      <t>牙眦必</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>报</t>
+    </r>
+  </si>
+  <si>
+    <t>いっせんをかくす</t>
+  </si>
+  <si>
+    <t>いわぬがはな</t>
+  </si>
+  <si>
+    <t>沉默是金</t>
+  </si>
+  <si>
+    <t>いんがをふくめる</t>
+  </si>
+  <si>
+    <t>うおごころあればみずごころ</t>
+  </si>
+  <si>
+    <t>うそもほうべん</t>
+  </si>
+  <si>
+    <r>
+      <t>说谎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>也是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>权</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>宜之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>计</t>
+    </r>
+  </si>
+  <si>
+    <t>うのめたかのめ</t>
+  </si>
+  <si>
+    <t>うまのみみにねんぶつ</t>
+  </si>
+  <si>
+    <t>うりのつるになすびはならぬ</t>
+  </si>
+  <si>
+    <t>うりふたつ</t>
+  </si>
+  <si>
+    <t>うわまえをはねる</t>
+  </si>
+  <si>
+    <t>おおぶろしきをひろげる</t>
+  </si>
+  <si>
+    <t>吹牛皮</t>
+  </si>
+  <si>
+    <t>おくばにものがはさまる</t>
+  </si>
+  <si>
+    <t>吞吞吐吐</t>
+  </si>
+  <si>
+    <t>おさとがしれる</t>
+  </si>
+  <si>
+    <t>おちゃをにごす</t>
+  </si>
+  <si>
+    <t>かえるのつらにみず</t>
+  </si>
+  <si>
+    <t>かたずをのむ</t>
+  </si>
+  <si>
+    <t>かねにいとめをつけぬ</t>
+  </si>
+  <si>
+    <r>
+      <t>花</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如流水</t>
+    </r>
+  </si>
+  <si>
+    <t>かんでふくめる</t>
+  </si>
+  <si>
+    <t>きいろいこえ</t>
+  </si>
+  <si>
+    <t>きがおける</t>
+  </si>
+  <si>
+    <t>きをのまれる</t>
+  </si>
+  <si>
+    <t>ぐうのねもでない</t>
+  </si>
+  <si>
+    <t>くぎをさす</t>
+  </si>
+  <si>
+    <t>敲定</t>
+  </si>
+  <si>
+    <t>くさってもたい</t>
+  </si>
+  <si>
+    <t>くもをつかむ</t>
+  </si>
+  <si>
+    <t>くるしい時の神頼み</t>
+  </si>
+  <si>
+    <r>
+      <t>临时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>抱佛脚</t>
+    </r>
+  </si>
+  <si>
+    <t>くろじ</t>
+  </si>
+  <si>
+    <t>盈余</t>
+  </si>
+  <si>
+    <t>くろまく</t>
+  </si>
+  <si>
+    <t>黑幕</t>
+  </si>
+  <si>
+    <t>げいがない</t>
+  </si>
+  <si>
+    <t>げたをあずける</t>
+  </si>
+  <si>
+    <t>こうぼうふでをえらばず</t>
+  </si>
+  <si>
+    <t>さいはいをふるう</t>
+  </si>
+  <si>
+    <r>
+      <t>发挥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，运用</t>
+    </r>
+  </si>
+  <si>
+    <t>さじをなげる</t>
+  </si>
+  <si>
+    <r>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可救</t>
+    </r>
+  </si>
+  <si>
+    <t>さばをよむ</t>
+  </si>
+  <si>
+    <t>しのぎをけずる</t>
+  </si>
+  <si>
+    <r>
+      <t>激烈</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>竞</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>争</t>
+    </r>
+  </si>
+  <si>
+    <t>じゅうにんといろ</t>
+  </si>
+  <si>
+    <r>
+      <t>十个人十个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+  </si>
+  <si>
+    <t>しょくしがうごく</t>
+  </si>
+  <si>
+    <r>
+      <t>亦步亦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>趋</t>
+    </r>
+  </si>
+  <si>
+    <t>ずにあたる</t>
+  </si>
+  <si>
+    <t>ずにのる</t>
+  </si>
+  <si>
+    <t>ずぼしをさす</t>
+  </si>
+  <si>
+    <r>
+      <t>击</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中要害</t>
+    </r>
+  </si>
+  <si>
+    <t>すみにおけない</t>
+  </si>
+  <si>
+    <t>せきをきる</t>
+  </si>
+  <si>
+    <t>そなえあればうれいなし</t>
+  </si>
+  <si>
+    <t>そりがあわない</t>
+  </si>
+  <si>
+    <t>たかがしれる</t>
+  </si>
+  <si>
+    <t>たかねのはな</t>
+  </si>
+  <si>
+    <t>高不可攀</t>
+  </si>
+  <si>
+    <t>たかみのけんぶつ</t>
+  </si>
+  <si>
+    <t>たかをくくる</t>
+  </si>
+  <si>
+    <t>たなにあげる</t>
+  </si>
+  <si>
+    <r>
+      <t>束之高</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阁</t>
+    </r>
+  </si>
+  <si>
+    <t>つるのひとこえ</t>
+  </si>
+  <si>
+    <t>大人一言，重于九鼎</t>
+  </si>
+  <si>
+    <t>てのひらをかえす</t>
+  </si>
+  <si>
+    <t>とうだいもとくらし</t>
+  </si>
+  <si>
+    <t>当局者迷</t>
+  </si>
+  <si>
+    <t>とぶとりをおとすいきおい</t>
+  </si>
+  <si>
+    <r>
+      <t>势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挡</t>
+    </r>
+  </si>
+  <si>
+    <t>とりつくしまもない</t>
+  </si>
+  <si>
+    <t>无所适从</t>
+  </si>
+  <si>
+    <t>どんぐりのせいくらべ</t>
+  </si>
+  <si>
+    <t>不相上下</t>
+  </si>
+  <si>
+    <t>ながいものにはまかれろ</t>
+  </si>
+  <si>
+    <t>なしのつぶて</t>
+  </si>
+  <si>
+    <t>杳无音信</t>
+  </si>
+  <si>
+    <t>ななころびやおき</t>
+  </si>
+  <si>
+    <r>
+      <t>百折不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>挠</t>
+    </r>
+  </si>
+  <si>
+    <t>にかいからめぐすり</t>
+  </si>
+  <si>
+    <t>にまいじたをつかう</t>
+  </si>
+  <si>
+    <t>ぬれぎぬをきせる</t>
+  </si>
+  <si>
+    <t>ねもはもない</t>
+  </si>
+  <si>
+    <t>毫无根据</t>
+  </si>
+  <si>
+    <t>はくしゃをかける</t>
+  </si>
+  <si>
+    <t>ひとのうわさもしちじゅうごにち</t>
+  </si>
+  <si>
+    <t>ひとをくう</t>
+  </si>
+  <si>
+    <t>ひのないところにけむりはたたぬ</t>
+  </si>
+  <si>
+    <t>ひょうたんからこま</t>
+  </si>
+  <si>
+    <t>ひんすればどんする</t>
+  </si>
+  <si>
+    <r>
+      <t>人</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>智短，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>瘦毛</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+  </si>
+  <si>
+    <t>したてのかんがえやすむににたり</t>
+  </si>
+  <si>
+    <t>ほとけのかおもさんど</t>
+  </si>
+  <si>
+    <r>
+      <t>容忍有限，事不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>三</t>
+    </r>
+  </si>
+  <si>
+    <t>まかぬたねははえぬ</t>
+  </si>
+  <si>
+    <r>
+      <t>不播种必无收</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>劳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>获</t>
+    </r>
+  </si>
+  <si>
+    <t>まごにもいしょう</t>
+  </si>
+  <si>
+    <t>まないたのこい</t>
+  </si>
+  <si>
+    <t>みゃくがある</t>
+  </si>
+  <si>
+    <t>むしがすかない</t>
+  </si>
+  <si>
+    <t>もちはもちや</t>
+  </si>
+  <si>
+    <t>もとのもくあみ</t>
+  </si>
+  <si>
+    <t>前功尽弃</t>
+  </si>
+  <si>
+    <t>やぶからぼう</t>
+  </si>
+  <si>
+    <t>やぶをつついてへびをだす</t>
+  </si>
+  <si>
+    <t>やりだまにあげる</t>
+  </si>
+  <si>
+    <t>よこやりをいれる</t>
+  </si>
+  <si>
+    <t>横加干涉</t>
+  </si>
+  <si>
+    <t>りっすいのちなし</t>
+  </si>
+  <si>
+    <r>
+      <t>无立</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>锥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>之地</t>
+    </r>
+  </si>
+  <si>
+    <t>りょうてにはな</t>
+  </si>
+  <si>
+    <r>
+      <t>双喜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>临门</t>
+    </r>
+  </si>
+  <si>
+    <t>りょうやくはくちににがし</t>
+  </si>
+  <si>
+    <r>
+      <t>良</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>药</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苦口利于病</t>
+    </r>
+  </si>
+  <si>
+    <t>ろんよりしょうこ</t>
+  </si>
+  <si>
+    <t>わたりにふね</t>
+  </si>
+  <si>
+    <t>久旱甘露</t>
+  </si>
+  <si>
+    <t>わたりをつける</t>
+  </si>
+  <si>
+    <t>わりをくう</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>吁短</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叹</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>盘腿坐；放松警惕</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>突如其来</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>磨蹭</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>严厉训</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>斥</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>惊慌失措</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小心翼翼</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>划清界限</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明原委（使人放弃）</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>你要有心我有意</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>虎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>视</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>眈眈</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>对牛弹琴</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>龙，凤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>凤</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>长</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>得一模一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>样</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>克扣</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>露出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脚</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>含糊其辞</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>满</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不在乎</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>紧张</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>屏息，提心吊胆</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>详细</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>妇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>女、小孩儿的）尖叫声</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>隔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阂，不融洽</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>爱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>答不理</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>被吓倒</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>一声不吭</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>瘦死的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>骆驼</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>比</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>马</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>虚幻无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>平庸</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>把事情托</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给别人去解决</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>善</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>者不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>择笔</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>虚报数字</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>有食欲；垂涎；起</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>贪</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>心</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>正中下怀</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>得意忘形</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>不可</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>轻视</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>洪水奔流；突然</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>无患</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>脾气不和</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>没有什么了不起的</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>袖手旁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>观</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>不屑一</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顾</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>翻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>脸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>认</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>人</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>小胳膊扭不过大腿</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>远水救不了近火</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>说话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>前后矛盾</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>受冤枉</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>加速；推</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>动</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>流言一阵风，过后无踪影</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>目中无人</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>风</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不起浪</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>弄假成真</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>笨人想不出好主意来</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>人靠衣装马靠鞍</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>俎上之</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>鱼，静待他人宰割</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>有希望</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>打心底里</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>讨厌</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>无</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>论做什么事还得靠行家</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>突然，出其不意</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <t>打草惊蛇</t>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>把…当作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>责难（攻击）的对象</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>たば</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>とう</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>さく</t>
+    </rPh>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>事实</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>胜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>以雄辩</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>搭上关系；挂上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>钩</t>
+    </r>
+    <phoneticPr fontId="3" type="Hiragana"/>
+  </si>
+  <si>
+    <r>
+      <t>吃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>亏</t>
+    </r>
     <phoneticPr fontId="3" type="Hiragana"/>
   </si>
 </sst>
@@ -7780,7 +10074,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7796,6 +10090,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -7823,15 +10123,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7850,8 +10153,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - アクセント 5" xfId="2" builtinId="46"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="入力" xfId="1" builtinId="20"/>
   </cellStyles>
@@ -8154,9 +10461,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D947"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A297" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D311" sqref="D311"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13716,7 +16023,7 @@
         <v>396</v>
       </c>
       <c r="C397" t="str">
-        <f t="shared" ref="C387:C450" si="0">PHONETIC(B397)</f>
+        <f t="shared" ref="C397:C450" si="0">PHONETIC(B397)</f>
         <v/>
       </c>
     </row>
@@ -18679,13 +20986,6403 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D650"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="3"/>
+  <cols>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="28.125" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1291</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1298</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1299</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1310</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1313</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1314</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1316</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1317</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1329</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C36" t="s">
+        <v>510</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1331</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1334</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1335</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1342</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1344</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1349</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1350</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1352</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>764</v>
+      </c>
+      <c r="C54" t="s">
+        <v>904</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1361</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1362</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1363</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1364</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1243</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1367</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1373</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1374</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1250</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1378</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1380</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1382</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>188</v>
+      </c>
+      <c r="C79" t="s">
+        <v>481</v>
+      </c>
+      <c r="D79" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1392</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1394</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1265</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1400</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1402</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1270</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1408</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1274</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1412</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="C107" t="str">
+        <f t="shared" ref="C67:C130" si="0">PHONETIC(B107)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="C108" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="C109" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="C110" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="C111" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="C112" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="C113" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="C114" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="C115" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="C116" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="C117" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="C118" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="C119" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="C120" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="C121" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="C122" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="C123" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="C124" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="C125" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="C126" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="C127" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="C128" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="C129" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="C130" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="C131" t="str">
+        <f t="shared" ref="C131:C194" si="1">PHONETIC(B131)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="C132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="C133" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="C134" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="C135" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="C136" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="C137" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="C138" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="C139" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="C140" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="C141" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="C142" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="C143" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="C144" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="C145" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="C146" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="C147" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="C148" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="C149" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="C150" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="C151" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="C152" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="C153" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="C154" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="C155" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="C156" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="C157" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="C158" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="C159" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="C160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="C161" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="C162" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="C163" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="C164" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="C165" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="C166" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="C167" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="C168" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="C169" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="C170" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="C171" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="C172" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="C173" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="C174" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="C175" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="C176" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="C177" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="C178" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="C179" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="C180" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="C181" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="C182" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="C183" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="C184" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="C185" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="C186" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="C187" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="C188" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="C189" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="C190" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="C191" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="C192" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="C193" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="C194" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="C195" t="str">
+        <f t="shared" ref="C195:C258" si="2">PHONETIC(B195)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="C196" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="C197" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="C198" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="C199" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="C200" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="C201" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="C202" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="C203" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="C204" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="C205" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="C206" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="C207" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="C208" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="C209" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="C210" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="C211" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="C212" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="C213" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="C214" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="C215" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="C216" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="C217" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="C218" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="C219" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="C220" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="C221" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="C222" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="C223" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="C224" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="C225" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="C226" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="C227" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="C228" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="C229" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="C230" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="C231" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="C232" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233">
+        <v>232</v>
+      </c>
+      <c r="C233" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234">
+        <v>233</v>
+      </c>
+      <c r="C234" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235">
+        <v>234</v>
+      </c>
+      <c r="C235" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236">
+        <v>235</v>
+      </c>
+      <c r="C236" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237">
+        <v>236</v>
+      </c>
+      <c r="C237" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238">
+        <v>237</v>
+      </c>
+      <c r="C238" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239">
+        <v>238</v>
+      </c>
+      <c r="C239" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240">
+        <v>239</v>
+      </c>
+      <c r="C240" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241">
+        <v>240</v>
+      </c>
+      <c r="C241" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242">
+        <v>241</v>
+      </c>
+      <c r="C242" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243">
+        <v>242</v>
+      </c>
+      <c r="C243" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244">
+        <v>243</v>
+      </c>
+      <c r="C244" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245">
+        <v>244</v>
+      </c>
+      <c r="C245" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246">
+        <v>245</v>
+      </c>
+      <c r="C246" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247">
+        <v>246</v>
+      </c>
+      <c r="C247" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248">
+        <v>247</v>
+      </c>
+      <c r="C248" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249">
+        <v>248</v>
+      </c>
+      <c r="C249" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250">
+        <v>249</v>
+      </c>
+      <c r="C250" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251">
+        <v>250</v>
+      </c>
+      <c r="C251" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252">
+        <v>251</v>
+      </c>
+      <c r="C252" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253">
+        <v>252</v>
+      </c>
+      <c r="C253" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254">
+        <v>253</v>
+      </c>
+      <c r="C254" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="C255" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="C256" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="C257" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="C258" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="C259" t="str">
+        <f t="shared" ref="C259:C322" si="3">PHONETIC(B259)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="C260" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="C261" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="C262" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="C263" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="C264" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265">
+        <v>264</v>
+      </c>
+      <c r="C265" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266">
+        <v>265</v>
+      </c>
+      <c r="C266" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267">
+        <v>266</v>
+      </c>
+      <c r="C267" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268">
+        <v>267</v>
+      </c>
+      <c r="C268" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269">
+        <v>268</v>
+      </c>
+      <c r="C269" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270">
+        <v>269</v>
+      </c>
+      <c r="C270" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271">
+        <v>270</v>
+      </c>
+      <c r="C271" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272">
+        <v>271</v>
+      </c>
+      <c r="C272" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273">
+        <v>272</v>
+      </c>
+      <c r="C273" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274">
+        <v>273</v>
+      </c>
+      <c r="C274" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275">
+        <v>274</v>
+      </c>
+      <c r="C275" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276">
+        <v>275</v>
+      </c>
+      <c r="C276" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277">
+        <v>276</v>
+      </c>
+      <c r="C277" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278">
+        <v>277</v>
+      </c>
+      <c r="C278" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279">
+        <v>278</v>
+      </c>
+      <c r="C279" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280">
+        <v>279</v>
+      </c>
+      <c r="C280" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281">
+        <v>280</v>
+      </c>
+      <c r="C281" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282">
+        <v>281</v>
+      </c>
+      <c r="C282" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283">
+        <v>282</v>
+      </c>
+      <c r="C283" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284">
+        <v>283</v>
+      </c>
+      <c r="C284" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285">
+        <v>284</v>
+      </c>
+      <c r="C285" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286">
+        <v>285</v>
+      </c>
+      <c r="C286" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287">
+        <v>286</v>
+      </c>
+      <c r="C287" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288">
+        <v>287</v>
+      </c>
+      <c r="C288" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289">
+        <v>288</v>
+      </c>
+      <c r="C289" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290">
+        <v>289</v>
+      </c>
+      <c r="C290" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291">
+        <v>290</v>
+      </c>
+      <c r="C291" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292">
+        <v>291</v>
+      </c>
+      <c r="C292" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293">
+        <v>292</v>
+      </c>
+      <c r="C293" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294">
+        <v>293</v>
+      </c>
+      <c r="C294" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295">
+        <v>294</v>
+      </c>
+      <c r="C295" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296">
+        <v>295</v>
+      </c>
+      <c r="C296" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297">
+        <v>296</v>
+      </c>
+      <c r="C297" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298">
+        <v>297</v>
+      </c>
+      <c r="C298" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299">
+        <v>298</v>
+      </c>
+      <c r="C299" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300">
+        <v>299</v>
+      </c>
+      <c r="C300" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301">
+        <v>300</v>
+      </c>
+      <c r="C301" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302">
+        <v>301</v>
+      </c>
+      <c r="C302" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303">
+        <v>302</v>
+      </c>
+      <c r="C303" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304">
+        <v>303</v>
+      </c>
+      <c r="C304" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305">
+        <v>304</v>
+      </c>
+      <c r="C305" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306">
+        <v>305</v>
+      </c>
+      <c r="C306" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307">
+        <v>306</v>
+      </c>
+      <c r="C307" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308">
+        <v>307</v>
+      </c>
+      <c r="C308" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309">
+        <v>308</v>
+      </c>
+      <c r="C309" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310">
+        <v>309</v>
+      </c>
+      <c r="C310" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311">
+        <v>310</v>
+      </c>
+      <c r="C311" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312">
+        <v>311</v>
+      </c>
+      <c r="C312" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313">
+        <v>312</v>
+      </c>
+      <c r="C313" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314">
+        <v>313</v>
+      </c>
+      <c r="C314" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315">
+        <v>314</v>
+      </c>
+      <c r="C315" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316">
+        <v>315</v>
+      </c>
+      <c r="C316" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317">
+        <v>316</v>
+      </c>
+      <c r="C317" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318">
+        <v>317</v>
+      </c>
+      <c r="C318" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319">
+        <v>318</v>
+      </c>
+      <c r="C319" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320">
+        <v>319</v>
+      </c>
+      <c r="C320" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321">
+        <v>320</v>
+      </c>
+      <c r="C321" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322">
+        <v>321</v>
+      </c>
+      <c r="C322" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323">
+        <v>322</v>
+      </c>
+      <c r="C323" t="str">
+        <f t="shared" ref="C323:C386" si="4">PHONETIC(B323)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324">
+        <v>323</v>
+      </c>
+      <c r="C324" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325">
+        <v>324</v>
+      </c>
+      <c r="C325" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326">
+        <v>325</v>
+      </c>
+      <c r="C326" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327">
+        <v>326</v>
+      </c>
+      <c r="C327" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328">
+        <v>327</v>
+      </c>
+      <c r="C328" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329">
+        <v>328</v>
+      </c>
+      <c r="C329" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330">
+        <v>329</v>
+      </c>
+      <c r="C330" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331">
+        <v>330</v>
+      </c>
+      <c r="C331" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332">
+        <v>331</v>
+      </c>
+      <c r="C332" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333">
+        <v>332</v>
+      </c>
+      <c r="C333" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334">
+        <v>333</v>
+      </c>
+      <c r="C334" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335">
+        <v>334</v>
+      </c>
+      <c r="C335" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336">
+        <v>335</v>
+      </c>
+      <c r="C336" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337">
+        <v>336</v>
+      </c>
+      <c r="C337" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338">
+        <v>337</v>
+      </c>
+      <c r="C338" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339">
+        <v>338</v>
+      </c>
+      <c r="C339" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340">
+        <v>339</v>
+      </c>
+      <c r="C340" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341">
+        <v>340</v>
+      </c>
+      <c r="C341" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342">
+        <v>341</v>
+      </c>
+      <c r="C342" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343">
+        <v>342</v>
+      </c>
+      <c r="C343" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344">
+        <v>343</v>
+      </c>
+      <c r="C344" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345">
+        <v>344</v>
+      </c>
+      <c r="C345" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346">
+        <v>345</v>
+      </c>
+      <c r="C346" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347">
+        <v>346</v>
+      </c>
+      <c r="C347" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348">
+        <v>347</v>
+      </c>
+      <c r="C348" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349">
+        <v>348</v>
+      </c>
+      <c r="C349" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350">
+        <v>349</v>
+      </c>
+      <c r="C350" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351">
+        <v>350</v>
+      </c>
+      <c r="C351" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352">
+        <v>351</v>
+      </c>
+      <c r="C352" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353">
+        <v>352</v>
+      </c>
+      <c r="C353" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354">
+        <v>353</v>
+      </c>
+      <c r="C354" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355">
+        <v>354</v>
+      </c>
+      <c r="C355" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356">
+        <v>355</v>
+      </c>
+      <c r="C356" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357">
+        <v>356</v>
+      </c>
+      <c r="C357" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358">
+        <v>357</v>
+      </c>
+      <c r="C358" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359">
+        <v>358</v>
+      </c>
+      <c r="C359" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360">
+        <v>359</v>
+      </c>
+      <c r="C360" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361">
+        <v>360</v>
+      </c>
+      <c r="C361" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362">
+        <v>361</v>
+      </c>
+      <c r="C362" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363">
+        <v>362</v>
+      </c>
+      <c r="C363" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364">
+        <v>363</v>
+      </c>
+      <c r="C364" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365">
+        <v>364</v>
+      </c>
+      <c r="C365" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366">
+        <v>365</v>
+      </c>
+      <c r="C366" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367">
+        <v>366</v>
+      </c>
+      <c r="C367" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368">
+        <v>367</v>
+      </c>
+      <c r="C368" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369">
+        <v>368</v>
+      </c>
+      <c r="C369" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370">
+        <v>369</v>
+      </c>
+      <c r="C370" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="C371" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="C372" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="C373" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="C374" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="C375" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="C376" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377">
+        <v>376</v>
+      </c>
+      <c r="C377" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378">
+        <v>377</v>
+      </c>
+      <c r="C378" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379">
+        <v>378</v>
+      </c>
+      <c r="C379" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380">
+        <v>379</v>
+      </c>
+      <c r="C380" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381">
+        <v>380</v>
+      </c>
+      <c r="C381" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382">
+        <v>381</v>
+      </c>
+      <c r="C382" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383">
+        <v>382</v>
+      </c>
+      <c r="C383" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384">
+        <v>383</v>
+      </c>
+      <c r="C384" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385">
+        <v>384</v>
+      </c>
+      <c r="C385" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386">
+        <v>385</v>
+      </c>
+      <c r="C386" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387">
+        <v>386</v>
+      </c>
+      <c r="C387" t="str">
+        <f t="shared" ref="C387:C450" si="5">PHONETIC(B387)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388">
+        <v>387</v>
+      </c>
+      <c r="C388" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389">
+        <v>388</v>
+      </c>
+      <c r="C389" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390">
+        <v>389</v>
+      </c>
+      <c r="C390" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391">
+        <v>390</v>
+      </c>
+      <c r="C391" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392">
+        <v>391</v>
+      </c>
+      <c r="C392" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393">
+        <v>392</v>
+      </c>
+      <c r="C393" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394">
+        <v>393</v>
+      </c>
+      <c r="C394" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395">
+        <v>394</v>
+      </c>
+      <c r="C395" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396">
+        <v>395</v>
+      </c>
+      <c r="C396" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397">
+        <v>396</v>
+      </c>
+      <c r="C397" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398">
+        <v>397</v>
+      </c>
+      <c r="C398" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399">
+        <v>398</v>
+      </c>
+      <c r="C399" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400">
+        <v>399</v>
+      </c>
+      <c r="C400" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401">
+        <v>400</v>
+      </c>
+      <c r="C401" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402">
+        <v>401</v>
+      </c>
+      <c r="C402" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403">
+        <v>402</v>
+      </c>
+      <c r="C403" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404">
+        <v>403</v>
+      </c>
+      <c r="C404" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405">
+        <v>404</v>
+      </c>
+      <c r="C405" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406">
+        <v>405</v>
+      </c>
+      <c r="C406" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407">
+        <v>406</v>
+      </c>
+      <c r="C407" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408">
+        <v>407</v>
+      </c>
+      <c r="C408" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409">
+        <v>408</v>
+      </c>
+      <c r="C409" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410">
+        <v>409</v>
+      </c>
+      <c r="C410" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411">
+        <v>410</v>
+      </c>
+      <c r="C411" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412">
+        <v>411</v>
+      </c>
+      <c r="C412" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413">
+        <v>412</v>
+      </c>
+      <c r="C413" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414">
+        <v>413</v>
+      </c>
+      <c r="C414" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415">
+        <v>414</v>
+      </c>
+      <c r="C415" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416">
+        <v>415</v>
+      </c>
+      <c r="C416" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417">
+        <v>416</v>
+      </c>
+      <c r="C417" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418">
+        <v>417</v>
+      </c>
+      <c r="C418" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419">
+        <v>418</v>
+      </c>
+      <c r="C419" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420">
+        <v>419</v>
+      </c>
+      <c r="C420" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421">
+        <v>420</v>
+      </c>
+      <c r="C421" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422">
+        <v>421</v>
+      </c>
+      <c r="C422" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423">
+        <v>422</v>
+      </c>
+      <c r="C423" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424">
+        <v>423</v>
+      </c>
+      <c r="C424" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425">
+        <v>424</v>
+      </c>
+      <c r="C425" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426">
+        <v>425</v>
+      </c>
+      <c r="C426" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427">
+        <v>426</v>
+      </c>
+      <c r="C427" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428">
+        <v>427</v>
+      </c>
+      <c r="C428" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429">
+        <v>428</v>
+      </c>
+      <c r="C429" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430">
+        <v>429</v>
+      </c>
+      <c r="C430" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431">
+        <v>430</v>
+      </c>
+      <c r="C431" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432">
+        <v>431</v>
+      </c>
+      <c r="C432" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433">
+        <v>432</v>
+      </c>
+      <c r="C433" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434">
+        <v>433</v>
+      </c>
+      <c r="C434" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435">
+        <v>434</v>
+      </c>
+      <c r="C435" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436">
+        <v>435</v>
+      </c>
+      <c r="C436" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437">
+        <v>436</v>
+      </c>
+      <c r="C437" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438">
+        <v>437</v>
+      </c>
+      <c r="C438" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439">
+        <v>438</v>
+      </c>
+      <c r="C439" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="C440" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="C441" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="C442" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="C443" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="C444" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="C445" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="C446" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="C447" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+      <c r="C448" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449">
+        <v>448</v>
+      </c>
+      <c r="C449" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450">
+        <v>449</v>
+      </c>
+      <c r="C450" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451">
+        <v>450</v>
+      </c>
+      <c r="C451" t="str">
+        <f t="shared" ref="C451:C514" si="6">PHONETIC(B451)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452">
+        <v>451</v>
+      </c>
+      <c r="C452" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453">
+        <v>452</v>
+      </c>
+      <c r="C453" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454">
+        <v>453</v>
+      </c>
+      <c r="C454" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455">
+        <v>454</v>
+      </c>
+      <c r="C455" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456">
+        <v>455</v>
+      </c>
+      <c r="C456" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457">
+        <v>456</v>
+      </c>
+      <c r="C457" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458">
+        <v>457</v>
+      </c>
+      <c r="C458" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459">
+        <v>458</v>
+      </c>
+      <c r="C459" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460">
+        <v>459</v>
+      </c>
+      <c r="C460" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461">
+        <v>460</v>
+      </c>
+      <c r="C461" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462">
+        <v>461</v>
+      </c>
+      <c r="C462" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463">
+        <v>462</v>
+      </c>
+      <c r="C463" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464">
+        <v>463</v>
+      </c>
+      <c r="C464" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465">
+        <v>464</v>
+      </c>
+      <c r="C465" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466">
+        <v>465</v>
+      </c>
+      <c r="C466" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467">
+        <v>466</v>
+      </c>
+      <c r="C467" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468">
+        <v>467</v>
+      </c>
+      <c r="C468" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469">
+        <v>468</v>
+      </c>
+      <c r="C469" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470">
+        <v>469</v>
+      </c>
+      <c r="C470" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471">
+        <v>470</v>
+      </c>
+      <c r="C471" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472">
+        <v>471</v>
+      </c>
+      <c r="C472" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473">
+        <v>472</v>
+      </c>
+      <c r="C473" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474">
+        <v>473</v>
+      </c>
+      <c r="C474" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475">
+        <v>474</v>
+      </c>
+      <c r="C475" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476">
+        <v>475</v>
+      </c>
+      <c r="C476" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477">
+        <v>476</v>
+      </c>
+      <c r="C477" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478">
+        <v>477</v>
+      </c>
+      <c r="C478" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479">
+        <v>478</v>
+      </c>
+      <c r="C479" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480">
+        <v>479</v>
+      </c>
+      <c r="C480" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481">
+        <v>480</v>
+      </c>
+      <c r="C481" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482">
+        <v>481</v>
+      </c>
+      <c r="C482" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483">
+        <v>482</v>
+      </c>
+      <c r="C483" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484">
+        <v>483</v>
+      </c>
+      <c r="C484" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485">
+        <v>484</v>
+      </c>
+      <c r="C485" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486">
+        <v>485</v>
+      </c>
+      <c r="C486" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487">
+        <v>486</v>
+      </c>
+      <c r="C487" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488">
+        <v>487</v>
+      </c>
+      <c r="C488" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489">
+        <v>488</v>
+      </c>
+      <c r="C489" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490">
+        <v>489</v>
+      </c>
+      <c r="C490" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491">
+        <v>490</v>
+      </c>
+      <c r="C491" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492">
+        <v>491</v>
+      </c>
+      <c r="C492" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493">
+        <v>492</v>
+      </c>
+      <c r="C493" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494">
+        <v>493</v>
+      </c>
+      <c r="C494" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495">
+        <v>494</v>
+      </c>
+      <c r="C495" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496">
+        <v>495</v>
+      </c>
+      <c r="C496" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497">
+        <v>496</v>
+      </c>
+      <c r="C497" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498">
+        <v>497</v>
+      </c>
+      <c r="C498" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499">
+        <v>498</v>
+      </c>
+      <c r="C499" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500">
+        <v>499</v>
+      </c>
+      <c r="C500" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501">
+        <v>500</v>
+      </c>
+      <c r="C501" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502">
+        <v>501</v>
+      </c>
+      <c r="C502" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503">
+        <v>502</v>
+      </c>
+      <c r="C503" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504">
+        <v>503</v>
+      </c>
+      <c r="C504" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505">
+        <v>504</v>
+      </c>
+      <c r="C505" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506">
+        <v>505</v>
+      </c>
+      <c r="C506" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507">
+        <v>506</v>
+      </c>
+      <c r="C507" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508">
+        <v>507</v>
+      </c>
+      <c r="C508" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509">
+        <v>508</v>
+      </c>
+      <c r="C509" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510">
+        <v>509</v>
+      </c>
+      <c r="C510" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511">
+        <v>510</v>
+      </c>
+      <c r="C511" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512">
+        <v>511</v>
+      </c>
+      <c r="C512" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513">
+        <v>512</v>
+      </c>
+      <c r="C513" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514">
+        <v>513</v>
+      </c>
+      <c r="C514" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515">
+        <v>514</v>
+      </c>
+      <c r="C515" t="str">
+        <f t="shared" ref="C515:C578" si="7">PHONETIC(B515)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516">
+        <v>515</v>
+      </c>
+      <c r="C516" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517">
+        <v>516</v>
+      </c>
+      <c r="C517" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518">
+        <v>517</v>
+      </c>
+      <c r="C518" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519">
+        <v>518</v>
+      </c>
+      <c r="C519" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520">
+        <v>519</v>
+      </c>
+      <c r="C520" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521">
+        <v>520</v>
+      </c>
+      <c r="C521" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="522" spans="1:3">
+      <c r="A522">
+        <v>521</v>
+      </c>
+      <c r="C522" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="523" spans="1:3">
+      <c r="A523">
+        <v>522</v>
+      </c>
+      <c r="C523" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="524" spans="1:3">
+      <c r="A524">
+        <v>523</v>
+      </c>
+      <c r="C524" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="525" spans="1:3">
+      <c r="A525">
+        <v>524</v>
+      </c>
+      <c r="C525" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="526" spans="1:3">
+      <c r="A526">
+        <v>525</v>
+      </c>
+      <c r="C526" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="527" spans="1:3">
+      <c r="A527">
+        <v>526</v>
+      </c>
+      <c r="C527" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="528" spans="1:3">
+      <c r="A528">
+        <v>527</v>
+      </c>
+      <c r="C528" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="529" spans="1:3">
+      <c r="A529">
+        <v>528</v>
+      </c>
+      <c r="C529" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="530" spans="1:3">
+      <c r="A530">
+        <v>529</v>
+      </c>
+      <c r="C530" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="531" spans="1:3">
+      <c r="A531">
+        <v>530</v>
+      </c>
+      <c r="C531" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="532" spans="1:3">
+      <c r="A532">
+        <v>531</v>
+      </c>
+      <c r="C532" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="533" spans="1:3">
+      <c r="A533">
+        <v>532</v>
+      </c>
+      <c r="C533" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="534" spans="1:3">
+      <c r="A534">
+        <v>533</v>
+      </c>
+      <c r="C534" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="535" spans="1:3">
+      <c r="A535">
+        <v>534</v>
+      </c>
+      <c r="C535" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="536" spans="1:3">
+      <c r="A536">
+        <v>535</v>
+      </c>
+      <c r="C536" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="537" spans="1:3">
+      <c r="A537">
+        <v>536</v>
+      </c>
+      <c r="C537" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="A538">
+        <v>537</v>
+      </c>
+      <c r="C538" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="539" spans="1:3">
+      <c r="A539">
+        <v>538</v>
+      </c>
+      <c r="C539" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="A540">
+        <v>539</v>
+      </c>
+      <c r="C540" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="A541">
+        <v>540</v>
+      </c>
+      <c r="C541" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="A542">
+        <v>541</v>
+      </c>
+      <c r="C542" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="A543">
+        <v>542</v>
+      </c>
+      <c r="C543" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="A544">
+        <v>543</v>
+      </c>
+      <c r="C544" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="A545">
+        <v>544</v>
+      </c>
+      <c r="C545" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="A546">
+        <v>545</v>
+      </c>
+      <c r="C546" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="A547">
+        <v>546</v>
+      </c>
+      <c r="C547" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="A548">
+        <v>547</v>
+      </c>
+      <c r="C548" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="A549">
+        <v>548</v>
+      </c>
+      <c r="C549" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="A550">
+        <v>549</v>
+      </c>
+      <c r="C550" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="A551">
+        <v>550</v>
+      </c>
+      <c r="C551" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552">
+        <v>551</v>
+      </c>
+      <c r="C552" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="A553">
+        <v>552</v>
+      </c>
+      <c r="C553" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="A554">
+        <v>553</v>
+      </c>
+      <c r="C554" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="A555">
+        <v>554</v>
+      </c>
+      <c r="C555" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="A556">
+        <v>555</v>
+      </c>
+      <c r="C556" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="A557">
+        <v>556</v>
+      </c>
+      <c r="C557" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="A558">
+        <v>557</v>
+      </c>
+      <c r="C558" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="559" spans="1:3">
+      <c r="A559">
+        <v>558</v>
+      </c>
+      <c r="C559" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560">
+        <v>559</v>
+      </c>
+      <c r="C560" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="561" spans="1:3">
+      <c r="A561">
+        <v>560</v>
+      </c>
+      <c r="C561" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="562" spans="1:3">
+      <c r="A562">
+        <v>561</v>
+      </c>
+      <c r="C562" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="563" spans="1:3">
+      <c r="A563">
+        <v>562</v>
+      </c>
+      <c r="C563" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="564" spans="1:3">
+      <c r="A564">
+        <v>563</v>
+      </c>
+      <c r="C564" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="565" spans="1:3">
+      <c r="A565">
+        <v>564</v>
+      </c>
+      <c r="C565" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="566" spans="1:3">
+      <c r="A566">
+        <v>565</v>
+      </c>
+      <c r="C566" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="567" spans="1:3">
+      <c r="A567">
+        <v>566</v>
+      </c>
+      <c r="C567" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="568" spans="1:3">
+      <c r="A568">
+        <v>567</v>
+      </c>
+      <c r="C568" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="569" spans="1:3">
+      <c r="A569">
+        <v>568</v>
+      </c>
+      <c r="C569" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="570" spans="1:3">
+      <c r="A570">
+        <v>569</v>
+      </c>
+      <c r="C570" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="571" spans="1:3">
+      <c r="A571">
+        <v>570</v>
+      </c>
+      <c r="C571" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="572" spans="1:3">
+      <c r="A572">
+        <v>571</v>
+      </c>
+      <c r="C572" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="573" spans="1:3">
+      <c r="A573">
+        <v>572</v>
+      </c>
+      <c r="C573" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="574" spans="1:3">
+      <c r="A574">
+        <v>573</v>
+      </c>
+      <c r="C574" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="575" spans="1:3">
+      <c r="A575">
+        <v>574</v>
+      </c>
+      <c r="C575" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="576" spans="1:3">
+      <c r="A576">
+        <v>575</v>
+      </c>
+      <c r="C576" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="577" spans="1:3">
+      <c r="A577">
+        <v>576</v>
+      </c>
+      <c r="C577" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="578" spans="1:3">
+      <c r="A578">
+        <v>577</v>
+      </c>
+      <c r="C578" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+    </row>
+    <row r="579" spans="1:3">
+      <c r="A579">
+        <v>578</v>
+      </c>
+      <c r="C579" t="str">
+        <f t="shared" ref="C579:C642" si="8">PHONETIC(B579)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="580" spans="1:3">
+      <c r="A580">
+        <v>579</v>
+      </c>
+      <c r="C580" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="581" spans="1:3">
+      <c r="A581">
+        <v>580</v>
+      </c>
+      <c r="C581" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="582" spans="1:3">
+      <c r="A582">
+        <v>581</v>
+      </c>
+      <c r="C582" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="583" spans="1:3">
+      <c r="A583">
+        <v>582</v>
+      </c>
+      <c r="C583" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="584" spans="1:3">
+      <c r="A584">
+        <v>583</v>
+      </c>
+      <c r="C584" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="585" spans="1:3">
+      <c r="A585">
+        <v>584</v>
+      </c>
+      <c r="C585" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="586" spans="1:3">
+      <c r="A586">
+        <v>585</v>
+      </c>
+      <c r="C586" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="587" spans="1:3">
+      <c r="A587">
+        <v>586</v>
+      </c>
+      <c r="C587" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="588" spans="1:3">
+      <c r="A588">
+        <v>587</v>
+      </c>
+      <c r="C588" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="589" spans="1:3">
+      <c r="A589">
+        <v>588</v>
+      </c>
+      <c r="C589" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="590" spans="1:3">
+      <c r="A590">
+        <v>589</v>
+      </c>
+      <c r="C590" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="591" spans="1:3">
+      <c r="A591">
+        <v>590</v>
+      </c>
+      <c r="C591" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="592" spans="1:3">
+      <c r="A592">
+        <v>591</v>
+      </c>
+      <c r="C592" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="593" spans="1:3">
+      <c r="A593">
+        <v>592</v>
+      </c>
+      <c r="C593" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="594" spans="1:3">
+      <c r="A594">
+        <v>593</v>
+      </c>
+      <c r="C594" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="595" spans="1:3">
+      <c r="A595">
+        <v>594</v>
+      </c>
+      <c r="C595" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="596" spans="1:3">
+      <c r="A596">
+        <v>595</v>
+      </c>
+      <c r="C596" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="597" spans="1:3">
+      <c r="A597">
+        <v>596</v>
+      </c>
+      <c r="C597" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="598" spans="1:3">
+      <c r="A598">
+        <v>597</v>
+      </c>
+      <c r="C598" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="599" spans="1:3">
+      <c r="A599">
+        <v>598</v>
+      </c>
+      <c r="C599" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="600" spans="1:3">
+      <c r="A600">
+        <v>599</v>
+      </c>
+      <c r="C600" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="601" spans="1:3">
+      <c r="A601">
+        <v>600</v>
+      </c>
+      <c r="C601" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="602" spans="1:3">
+      <c r="A602">
+        <v>601</v>
+      </c>
+      <c r="C602" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="603" spans="1:3">
+      <c r="A603">
+        <v>602</v>
+      </c>
+      <c r="C603" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="604" spans="1:3">
+      <c r="A604">
+        <v>603</v>
+      </c>
+      <c r="C604" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="605" spans="1:3">
+      <c r="A605">
+        <v>604</v>
+      </c>
+      <c r="C605" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="606" spans="1:3">
+      <c r="A606">
+        <v>605</v>
+      </c>
+      <c r="C606" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="607" spans="1:3">
+      <c r="A607">
+        <v>606</v>
+      </c>
+      <c r="C607" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="608" spans="1:3">
+      <c r="A608">
+        <v>607</v>
+      </c>
+      <c r="C608" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="609" spans="1:3">
+      <c r="A609">
+        <v>608</v>
+      </c>
+      <c r="C609" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="610" spans="1:3">
+      <c r="A610">
+        <v>609</v>
+      </c>
+      <c r="C610" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="611" spans="1:3">
+      <c r="A611">
+        <v>610</v>
+      </c>
+      <c r="C611" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="612" spans="1:3">
+      <c r="A612">
+        <v>611</v>
+      </c>
+      <c r="C612" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="613" spans="1:3">
+      <c r="A613">
+        <v>612</v>
+      </c>
+      <c r="C613" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="614" spans="1:3">
+      <c r="A614">
+        <v>613</v>
+      </c>
+      <c r="C614" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="615" spans="1:3">
+      <c r="A615">
+        <v>614</v>
+      </c>
+      <c r="C615" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="616" spans="1:3">
+      <c r="A616">
+        <v>615</v>
+      </c>
+      <c r="C616" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="617" spans="1:3">
+      <c r="A617">
+        <v>616</v>
+      </c>
+      <c r="C617" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="618" spans="1:3">
+      <c r="A618">
+        <v>617</v>
+      </c>
+      <c r="C618" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="619" spans="1:3">
+      <c r="A619">
+        <v>618</v>
+      </c>
+      <c r="C619" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="620" spans="1:3">
+      <c r="A620">
+        <v>619</v>
+      </c>
+      <c r="C620" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="621" spans="1:3">
+      <c r="A621">
+        <v>620</v>
+      </c>
+      <c r="C621" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="622" spans="1:3">
+      <c r="A622">
+        <v>621</v>
+      </c>
+      <c r="C622" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="623" spans="1:3">
+      <c r="A623">
+        <v>622</v>
+      </c>
+      <c r="C623" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="624" spans="1:3">
+      <c r="A624">
+        <v>623</v>
+      </c>
+      <c r="C624" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="625" spans="1:3">
+      <c r="A625">
+        <v>624</v>
+      </c>
+      <c r="C625" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="626" spans="1:3">
+      <c r="A626">
+        <v>625</v>
+      </c>
+      <c r="C626" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="627" spans="1:3">
+      <c r="A627">
+        <v>626</v>
+      </c>
+      <c r="C627" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="628" spans="1:3">
+      <c r="A628">
+        <v>627</v>
+      </c>
+      <c r="C628" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="629" spans="1:3">
+      <c r="A629">
+        <v>628</v>
+      </c>
+      <c r="C629" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="630" spans="1:3">
+      <c r="A630">
+        <v>629</v>
+      </c>
+      <c r="C630" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="631" spans="1:3">
+      <c r="A631">
+        <v>630</v>
+      </c>
+      <c r="C631" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="632" spans="1:3">
+      <c r="A632">
+        <v>631</v>
+      </c>
+      <c r="C632" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="633" spans="1:3">
+      <c r="A633">
+        <v>632</v>
+      </c>
+      <c r="C633" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="634" spans="1:3">
+      <c r="A634">
+        <v>633</v>
+      </c>
+      <c r="C634" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="635" spans="1:3">
+      <c r="A635">
+        <v>634</v>
+      </c>
+      <c r="C635" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="636" spans="1:3">
+      <c r="A636">
+        <v>635</v>
+      </c>
+      <c r="C636" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="637" spans="1:3">
+      <c r="A637">
+        <v>636</v>
+      </c>
+      <c r="C637" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="638" spans="1:3">
+      <c r="A638">
+        <v>637</v>
+      </c>
+      <c r="C638" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="639" spans="1:3">
+      <c r="A639">
+        <v>638</v>
+      </c>
+      <c r="C639" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="640" spans="1:3">
+      <c r="A640">
+        <v>639</v>
+      </c>
+      <c r="C640" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="641" spans="1:3">
+      <c r="A641">
+        <v>640</v>
+      </c>
+      <c r="C641" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="642" spans="1:3">
+      <c r="A642">
+        <v>641</v>
+      </c>
+      <c r="C642" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+    </row>
+    <row r="643" spans="1:3">
+      <c r="A643">
+        <v>642</v>
+      </c>
+      <c r="C643" t="str">
+        <f t="shared" ref="C643:C650" si="9">PHONETIC(B643)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="644" spans="1:3">
+      <c r="A644">
+        <v>643</v>
+      </c>
+      <c r="C644" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="645" spans="1:3">
+      <c r="A645">
+        <v>644</v>
+      </c>
+      <c r="C645" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="646" spans="1:3">
+      <c r="A646">
+        <v>645</v>
+      </c>
+      <c r="C646" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="647" spans="1:3">
+      <c r="A647">
+        <v>646</v>
+      </c>
+      <c r="C647" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="648" spans="1:3">
+      <c r="A648">
+        <v>647</v>
+      </c>
+      <c r="C648" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="649" spans="1:3">
+      <c r="A649">
+        <v>648</v>
+      </c>
+      <c r="C649" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+    <row r="650" spans="1:3">
+      <c r="A650">
+        <v>649</v>
+      </c>
+      <c r="C650" t="str">
+        <f t="shared" si="9"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="Hiragana"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
